--- a/pearson_tables/t2m_netherlands-1-8.xlsx
+++ b/pearson_tables/t2m_netherlands-1-8.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8364715400050268</v>
+        <v>-0.7904574787216944</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.7670355717794455</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7221321042006839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.784003896956597</v>
+        <v>-0.7849661082144206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245151467282433</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7898052350658845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7781057588310957</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7563444413594763</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5531695355941471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8111475929115682</v>
+        <v>0.7512528737526725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8055264348729011</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7045559984671578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6961618151209754</v>
+        <v>0.7122986363850721</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5614950432250985</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6134465524354094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6481224178314763</v>
+        <v>-0.8453990001204013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5820932633119686</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5861056213523667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.7743805316436813</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7732385497900354</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7576832262554789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.7467336805616016</v>
+        <v>0.7010690194016472</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7128831801195979</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.721116148159875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
